--- a/Networks/Parte2/Excel/Parte2-Network2.xlsx
+++ b/Networks/Parte2/Excel/Parte2-Network2.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.7769435028849385</v>
+        <v>0.490784229048962</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.061564216769297</v>
+        <v>-0.856979637433861</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2486065527519509</v>
+        <v>-1.538135540534298</v>
       </c>
       <c r="C3" t="n">
-        <v>1.246345500012417</v>
+        <v>0.4737921956814924</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.656214682842714</v>
+        <v>-0.9680111251263739</v>
       </c>
       <c r="C4" t="n">
-        <v>0.951772521654537</v>
+        <v>-0.1428463378306487</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.68851452627188</v>
+        <v>-0.40483654027102</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.004833818163143294</v>
+        <v>0.1836611998420053</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.3719763986943956</v>
+        <v>-2.238144894072209</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.6567436017068685</v>
+        <v>-0.3816459446712922</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.602677398050364</v>
+        <v>0.03956816550053509</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2852806532973421</v>
+        <v>-0.1868005620449512</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte2/Excel/Parte2-Network2.xlsx
+++ b/Networks/Parte2/Excel/Parte2-Network2.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.490784229048962</v>
+        <v>-0.6749969208881521</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.856979637433861</v>
+        <v>0.6173879758738527</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.538135540534298</v>
+        <v>0.4590978704780589</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4737921956814924</v>
+        <v>-1.319022437466081</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9680111251263739</v>
+        <v>1.087281290452234</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1428463378306487</v>
+        <v>-0.9204998865577018</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.40483654027102</v>
+        <v>-0.8537523546243585</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1836611998420053</v>
+        <v>-0.1827437608322265</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2.238144894072209</v>
+        <v>1.051795902961459</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.3816459446712922</v>
+        <v>0.1052155019571581</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03956816550053509</v>
+        <v>-2.011587255793011</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1868005620449512</v>
+        <v>0.3131885082383439</v>
       </c>
     </row>
   </sheetData>
